--- a/Documentation/Release 1/Charts and Graphs Release 1.xlsx
+++ b/Documentation/Release 1/Charts and Graphs Release 1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Graphs" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
   <si>
     <t>Pass</t>
   </si>
@@ -43,18 +43,80 @@
   <si>
     <t>Iteration 2</t>
   </si>
+  <si>
+    <t xml:space="preserve">Hours worked
+</t>
+  </si>
+  <si>
+    <t>Estimated Effort Left</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average Burndown
+</t>
+  </si>
+  <si>
+    <t>6.5'</t>
+  </si>
+  <si>
+    <t>Ideal Burndown</t>
+  </si>
+  <si>
+    <t>Week 1</t>
+  </si>
+  <si>
+    <t>Week 2</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>Project Burndown</t>
+  </si>
+  <si>
+    <t>Iteration 3</t>
+  </si>
+  <si>
+    <t>Iteration 4</t>
+  </si>
+  <si>
+    <t>Iteration 5</t>
+  </si>
+  <si>
+    <t>Iteration 6</t>
+  </si>
+  <si>
+    <t>Iteration 7</t>
+  </si>
+  <si>
+    <t>Iteration 8</t>
+  </si>
+  <si>
+    <t>Iteration 9</t>
+  </si>
+  <si>
+    <t>Iteration 10</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -65,7 +127,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -73,12 +135,36 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="16" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -90,7 +176,7 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:lang val="en-AU"/>
   <c:style val="10"/>
   <c:chart>
     <c:plotArea>
@@ -99,9 +185,9 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="8.8655074365704356E-2"/>
+          <c:x val="8.8655074365704384E-2"/>
           <c:y val="5.1400554097404488E-2"/>
-          <c:w val="0.7536380139982507"/>
+          <c:w val="0.75363801399825081"/>
           <c:h val="0.8326195683872849"/>
         </c:manualLayout>
       </c:layout>
@@ -247,24 +333,24 @@
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="78877824"/>
-        <c:axId val="79503744"/>
+        <c:axId val="48669440"/>
+        <c:axId val="48670976"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="78877824"/>
+        <c:axId val="48669440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79503744"/>
+        <c:crossAx val="48670976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="79503744"/>
+        <c:axId val="48670976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -272,7 +358,622 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78877824"/>
+        <c:crossAx val="48669440"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-AU"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Iteration Burndown'!$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Hours worked
+</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Iteration Burndown'!$B$8:$D$8</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Week 1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Week 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Iteration Burndown'!$B$9:$D$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="84706432"/>
+        <c:axId val="84790656"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="84706432"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="84790656"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="84790656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="84706432"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-AU"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.6071741032370933E-2"/>
+          <c:y val="6.9328528559337271E-2"/>
+          <c:w val="0.55005314960629903"/>
+          <c:h val="0.83717330529123579"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Iteration Burndown'!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Hours worked
+</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Iteration Burndown'!$B$1:$K$1</c:f>
+              <c:numCache>
+                <c:formatCode>d\-mmm</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>42227</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42229</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42232</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42234</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42236</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42239</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42241</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42243</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42246</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42248</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Iteration Burndown'!$B$2:$K$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>93.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>83.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>76.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>37.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>19</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Iteration Burndown'!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Estimated Effort Left</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Iteration Burndown'!$B$1:$K$1</c:f>
+              <c:numCache>
+                <c:formatCode>d\-mmm</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>42227</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42229</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42232</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42234</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42236</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42239</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42241</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42243</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42246</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42248</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Iteration Burndown'!$B$3:$K$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="6">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-13</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Iteration Burndown'!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average Burndown
+</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Iteration Burndown'!$B$1:$K$1</c:f>
+              <c:numCache>
+                <c:formatCode>d\-mmm</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>42227</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42229</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42232</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42234</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42236</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42239</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42241</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42243</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42246</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42248</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Iteration Burndown'!$B$4:$K$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>78.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>65.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>52.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Iteration Burndown'!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ideal Burndown</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Iteration Burndown'!$B$1:$K$1</c:f>
+              <c:numCache>
+                <c:formatCode>d\-mmm</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>42227</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42229</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42232</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42234</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42236</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42239</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42241</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42243</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42246</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42248</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Iteration Burndown'!$B$5:$K$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="84706816"/>
+        <c:axId val="84708352"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="84706816"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="d\-mmm" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="84708352"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="84708352"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="84706816"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-AU"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Velocity!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Velocity</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Velocity!$B$1:$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Iteration 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Iteration 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Velocity!$B$2:$C$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="118520448"/>
+        <c:axId val="118550912"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="118520448"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="118550912"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="118550912"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="20"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="118520448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -291,20 +992,745 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-AU"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Project Burndown'!$A$1:$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Iteration 1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Iteration 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Project Burndown'!$A$2:$C$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="85352832"/>
+        <c:axId val="85354368"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="85352832"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="85354368"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="85354368"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="85352832"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-AU"/>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Velocity!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Velocity</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Velocity!$B$1:$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Iteration 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Iteration 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Velocity!$B$2:$C$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="86369408"/>
+        <c:axId val="87986176"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="86369408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="87986176"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="87986176"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="20"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="86369408"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-AU"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.607174103237096E-2"/>
+          <c:y val="6.9328528559337244E-2"/>
+          <c:w val="0.55005314960629925"/>
+          <c:h val="0.83717330529123601"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Iteration Burndown'!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Hours worked
+</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Iteration Burndown'!$B$1:$K$1</c:f>
+              <c:numCache>
+                <c:formatCode>d\-mmm</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>42227</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42229</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42232</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42234</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42236</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42239</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42241</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42243</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42246</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42248</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Iteration Burndown'!$B$2:$K$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>93.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>83.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>76.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>37.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>19</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Iteration Burndown'!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Estimated Effort Left</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Iteration Burndown'!$B$1:$K$1</c:f>
+              <c:numCache>
+                <c:formatCode>d\-mmm</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>42227</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42229</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42232</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42234</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42236</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42239</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42241</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42243</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42246</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42248</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Iteration Burndown'!$B$3:$K$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="6">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-13</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Iteration Burndown'!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average Burndown
+</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Iteration Burndown'!$B$1:$K$1</c:f>
+              <c:numCache>
+                <c:formatCode>d\-mmm</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>42227</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42229</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42232</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42234</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42236</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42239</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42241</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42243</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42246</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42248</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Iteration Burndown'!$B$4:$K$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>78.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>65.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>52.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Iteration Burndown'!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ideal Burndown</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Iteration Burndown'!$B$1:$K$1</c:f>
+              <c:numCache>
+                <c:formatCode>d\-mmm</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>42227</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42229</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42232</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42234</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42236</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42239</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42241</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42243</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42246</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42248</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Iteration Burndown'!$B$5:$K$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="87186432"/>
+        <c:axId val="87188224"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="87186432"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="d\-mmm" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="87188224"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="87188224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="87186432"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-AU"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Iteration 2</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Iteration Burndown'!$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Hours worked
+</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Iteration Burndown'!$B$8:$D$8</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Week 1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Week 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Iteration Burndown'!$B$9:$D$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="80431744"/>
+        <c:axId val="80442496"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="80431744"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="80442496"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="80442496"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="80431744"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>110490</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>3810</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -318,6 +1744,226 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>510540</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>129540</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>365760</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>594360</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>289560</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>365760</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -611,14 +2257,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:K54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+      <selection activeCell="M54" sqref="M54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="K17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -629,13 +2299,13 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="D18" sqref="C18:D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="19.42578125" customWidth="1"/>
-    <col min="4" max="4" width="17.140625" customWidth="1"/>
+    <col min="1" max="1" width="19.44140625" customWidth="1"/>
+    <col min="4" max="4" width="17.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -681,13 +2351,13 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="Q18" sqref="Q18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="12.42578125" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" customWidth="1"/>
+    <col min="3" max="3" width="14.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -702,36 +2372,410 @@
       <c r="A2" t="s">
         <v>5</v>
       </c>
+      <c r="B2">
+        <v>16</v>
+      </c>
+      <c r="C2">
+        <v>17</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:11" ht="15" thickBot="1">
+      <c r="A1" s="2"/>
+      <c r="B1" s="1">
+        <v>42227</v>
+      </c>
+      <c r="C1" s="1">
+        <v>42229</v>
+      </c>
+      <c r="D1" s="1">
+        <v>42232</v>
+      </c>
+      <c r="E1" s="1">
+        <v>42234</v>
+      </c>
+      <c r="F1" s="1">
+        <v>42236</v>
+      </c>
+      <c r="G1" s="1">
+        <v>42239</v>
+      </c>
+      <c r="H1" s="1">
+        <v>42241</v>
+      </c>
+      <c r="I1" s="1">
+        <v>42243</v>
+      </c>
+      <c r="J1" s="1">
+        <v>42246</v>
+      </c>
+      <c r="K1" s="1">
+        <v>42248</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="32.4" thickBot="1">
+      <c r="A2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="3">
+        <v>111</v>
+      </c>
+      <c r="C2" s="3">
+        <v>109</v>
+      </c>
+      <c r="D2" s="3">
+        <v>93.5</v>
+      </c>
+      <c r="E2" s="3">
+        <v>83.5</v>
+      </c>
+      <c r="F2" s="3">
+        <v>76.5</v>
+      </c>
+      <c r="G2" s="3">
+        <v>37.5</v>
+      </c>
+      <c r="H2" s="3">
+        <v>19</v>
+      </c>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+    </row>
+    <row r="3" spans="1:11" ht="22.2" thickBot="1">
+      <c r="A3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="3">
+        <v>19</v>
+      </c>
+      <c r="I3" s="3">
+        <v>6.5</v>
+      </c>
+      <c r="J3" s="3">
+        <v>-13</v>
+      </c>
+      <c r="K3" s="2"/>
+    </row>
+    <row r="4" spans="1:11" ht="32.4" thickBot="1">
+      <c r="A4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="3">
+        <v>111</v>
+      </c>
+      <c r="C4" s="3">
+        <v>98</v>
+      </c>
+      <c r="D4" s="3">
+        <v>78.5</v>
+      </c>
+      <c r="E4" s="3">
+        <v>65.5</v>
+      </c>
+      <c r="F4" s="3">
+        <v>52.5</v>
+      </c>
+      <c r="G4" s="3">
+        <v>33</v>
+      </c>
+      <c r="H4" s="3">
+        <v>19</v>
+      </c>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="22.2" thickBot="1">
+      <c r="A5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="3">
+        <v>111</v>
+      </c>
+      <c r="C5" s="3">
+        <v>95</v>
+      </c>
+      <c r="D5" s="3">
+        <v>71</v>
+      </c>
+      <c r="E5" s="3">
+        <v>55</v>
+      </c>
+      <c r="F5" s="3">
+        <v>39</v>
+      </c>
+      <c r="G5" s="3">
+        <v>15</v>
+      </c>
+      <c r="H5" s="3">
+        <v>0</v>
+      </c>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+    </row>
+    <row r="7" spans="1:11" ht="15" thickBot="1"/>
+    <row r="8" spans="1:11" ht="15" thickBot="1">
+      <c r="A8" s="2"/>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="1">
+        <v>42250</v>
+      </c>
+      <c r="F8" s="1">
+        <v>42253</v>
+      </c>
+      <c r="G8" s="1">
+        <v>42255</v>
+      </c>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+    </row>
+    <row r="9" spans="1:11" ht="32.4" thickBot="1">
+      <c r="A9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2">
+        <v>119</v>
+      </c>
+      <c r="C9" s="2">
+        <v>80</v>
+      </c>
+      <c r="D9" s="2">
+        <v>10</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+    </row>
+    <row r="10" spans="1:11" ht="15" thickBot="1">
+      <c r="A10" s="2"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="2"/>
+    </row>
+    <row r="11" spans="1:11" ht="15" thickBot="1">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+    </row>
+    <row r="12" spans="1:11" ht="15" thickBot="1">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="C13">
+        <v>21</v>
+      </c>
+      <c r="D13">
+        <v>3</v>
+      </c>
+      <c r="E13">
+        <v>6</v>
+      </c>
+      <c r="F13">
+        <v>38.75</v>
+      </c>
+      <c r="G13">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="C14">
+        <v>4</v>
+      </c>
+      <c r="F14">
+        <v>13.25</v>
+      </c>
+      <c r="G14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="C15">
+        <v>12</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>7.5</v>
+      </c>
+      <c r="G15">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="F16">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7">
+      <c r="B18">
+        <v>3</v>
+      </c>
+      <c r="C18">
+        <v>5</v>
+      </c>
+      <c r="D18">
+        <v>3</v>
+      </c>
+      <c r="E18">
+        <v>4</v>
+      </c>
+      <c r="F18">
+        <v>3</v>
+      </c>
+      <c r="G18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7">
+      <c r="F19">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7">
+      <c r="C22">
+        <v>109</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M27" sqref="M27"/>
+      <selection activeCell="R19" sqref="R19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2">
+        <v>41</v>
+      </c>
+      <c r="B2">
+        <v>25</v>
+      </c>
+      <c r="C2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="B3">
+        <v>16</v>
+      </c>
+      <c r="C3">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>